--- a/Thiết kế/Thiết kế xử lý/Thiết kế xử lý.xlsx
+++ b/Thiết kế/Thiết kế xử lý/Thiết kế xử lý.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\CNPM\Thiết kế\Thiết kế xử lý\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA0B1A2F-C880-4288-AF60-5AE347FD852F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0474B98A-30B1-4876-8421-40BE416D4258}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10185" yWindow="3705" windowWidth="21600" windowHeight="10305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="118">
   <si>
     <t>Danh sách các kiểu dữ liệu xử lý</t>
   </si>
@@ -377,6 +377,9 @@
   </si>
   <si>
     <t>ShowResult()</t>
+  </si>
+  <si>
+    <t>Boolean</t>
   </si>
 </sst>
 </file>
@@ -492,12 +495,6 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -506,6 +503,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -789,8 +792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:T86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -824,28 +827,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="F2" s="7" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="F2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="M2" s="8" t="s">
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="M2" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="10"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="8"/>
     </row>
     <row r="3" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -860,14 +863,14 @@
       <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
       <c r="M3" s="4" t="s">
         <v>1</v>
       </c>
@@ -1028,15 +1031,15 @@
         <v>40</v>
       </c>
       <c r="K8" s="3"/>
-      <c r="M8" s="8" t="s">
+      <c r="M8" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="10"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="8"/>
       <c r="T8"/>
     </row>
     <row r="9" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
@@ -1299,7 +1302,9 @@
       <c r="O15" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="P15" s="3"/>
+      <c r="P15" s="3" t="s">
+        <v>117</v>
+      </c>
       <c r="Q15" s="3"/>
       <c r="R15" s="3" t="s">
         <v>110</v>
@@ -1308,12 +1313,12 @@
       <c r="T15"/>
     </row>
     <row r="16" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
       <c r="M16" s="3">
         <v>7</v>
       </c>
@@ -1333,14 +1338,14 @@
       </c>
     </row>
     <row r="17" spans="6:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
       <c r="M17" s="3">
         <v>8</v>
       </c>
@@ -1521,22 +1526,22 @@
       <c r="K26" s="3"/>
     </row>
     <row r="27" spans="6:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
     </row>
     <row r="28" spans="6:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
     </row>
     <row r="29" spans="6:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F29" s="2" t="s">
@@ -1651,23 +1656,23 @@
       <c r="S35"/>
     </row>
     <row r="36" spans="6:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
       <c r="S36"/>
     </row>
     <row r="37" spans="6:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F37" s="7" t="s">
+      <c r="F37" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
       <c r="S37"/>
     </row>
     <row r="38" spans="6:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1785,22 +1790,22 @@
       <c r="K44" s="3"/>
     </row>
     <row r="45" spans="6:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
     </row>
     <row r="46" spans="6:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F46" s="7" t="s">
+      <c r="F46" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
     </row>
     <row r="47" spans="6:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F47" s="2" t="s">
@@ -1887,22 +1892,22 @@
       <c r="K51" s="3"/>
     </row>
     <row r="52" spans="6:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
-      <c r="K52" s="6"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
     </row>
     <row r="53" spans="6:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F53" s="7" t="s">
+      <c r="F53" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
-      <c r="J53" s="7"/>
-      <c r="K53" s="7"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
     </row>
     <row r="54" spans="6:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F54" s="2" t="s">
@@ -2037,22 +2042,22 @@
       <c r="K61" s="3"/>
     </row>
     <row r="62" spans="6:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6"/>
-      <c r="J62" s="6"/>
-      <c r="K62" s="6"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="10"/>
+      <c r="J62" s="10"/>
+      <c r="K62" s="10"/>
     </row>
     <row r="63" spans="6:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F63" s="7" t="s">
+      <c r="F63" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
-      <c r="I63" s="7"/>
-      <c r="J63" s="7"/>
-      <c r="K63" s="7"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
     </row>
     <row r="64" spans="6:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F64" s="2" t="s">
@@ -2123,22 +2128,22 @@
       <c r="K67" s="3"/>
     </row>
     <row r="68" spans="6:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
-      <c r="I68" s="6"/>
-      <c r="J68" s="6"/>
-      <c r="K68" s="6"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="10"/>
+      <c r="I68" s="10"/>
+      <c r="J68" s="10"/>
+      <c r="K68" s="10"/>
     </row>
     <row r="69" spans="6:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F69" s="7" t="s">
+      <c r="F69" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G69" s="7"/>
-      <c r="H69" s="7"/>
-      <c r="I69" s="7"/>
-      <c r="J69" s="7"/>
-      <c r="K69" s="7"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
     </row>
     <row r="70" spans="6:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F70" s="2" t="s">
@@ -2225,22 +2230,22 @@
       <c r="K74" s="3"/>
     </row>
     <row r="75" spans="6:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F75" s="6"/>
-      <c r="G75" s="6"/>
-      <c r="H75" s="6"/>
-      <c r="I75" s="6"/>
-      <c r="J75" s="6"/>
-      <c r="K75" s="6"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="10"/>
+      <c r="I75" s="10"/>
+      <c r="J75" s="10"/>
+      <c r="K75" s="10"/>
     </row>
     <row r="76" spans="6:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F76" s="7" t="s">
+      <c r="F76" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="G76" s="7"/>
-      <c r="H76" s="7"/>
-      <c r="I76" s="7"/>
-      <c r="J76" s="7"/>
-      <c r="K76" s="7"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="9"/>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
     </row>
     <row r="77" spans="6:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F77" s="2" t="s">
@@ -2311,22 +2316,22 @@
       <c r="K80" s="3"/>
     </row>
     <row r="81" spans="6:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F81" s="6"/>
-      <c r="G81" s="6"/>
-      <c r="H81" s="6"/>
-      <c r="I81" s="6"/>
-      <c r="J81" s="6"/>
-      <c r="K81" s="6"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="10"/>
+      <c r="H81" s="10"/>
+      <c r="I81" s="10"/>
+      <c r="J81" s="10"/>
+      <c r="K81" s="10"/>
     </row>
     <row r="82" spans="6:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F82" s="7" t="s">
+      <c r="F82" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="G82" s="7"/>
-      <c r="H82" s="7"/>
-      <c r="I82" s="7"/>
-      <c r="J82" s="7"/>
-      <c r="K82" s="7"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="9"/>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
     </row>
     <row r="83" spans="6:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F83" s="2" t="s">
@@ -2398,6 +2403,14 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="F81:K81"/>
+    <mergeCell ref="F82:K82"/>
+    <mergeCell ref="F62:K62"/>
+    <mergeCell ref="F63:K63"/>
+    <mergeCell ref="F68:K68"/>
+    <mergeCell ref="F69:K69"/>
+    <mergeCell ref="F75:K75"/>
+    <mergeCell ref="F76:K76"/>
     <mergeCell ref="M2:R2"/>
     <mergeCell ref="M8:S8"/>
     <mergeCell ref="F53:K53"/>
@@ -2413,14 +2426,6 @@
     <mergeCell ref="F45:K45"/>
     <mergeCell ref="F46:K46"/>
     <mergeCell ref="F52:K52"/>
-    <mergeCell ref="F81:K81"/>
-    <mergeCell ref="F82:K82"/>
-    <mergeCell ref="F62:K62"/>
-    <mergeCell ref="F63:K63"/>
-    <mergeCell ref="F68:K68"/>
-    <mergeCell ref="F69:K69"/>
-    <mergeCell ref="F75:K75"/>
-    <mergeCell ref="F76:K76"/>
   </mergeCells>
   <conditionalFormatting sqref="S35:S43">
     <cfRule type="dataBar" priority="1">
